--- a/data/traffic_light_indicators_data.xlsx
+++ b/data/traffic_light_indicators_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maarten/Documents/clients/stefanscheuer/buildings-dashboard/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maarten/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38FB9AC-D201-6D46-8BBE-B60B43FFE435}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A825303-F0B1-0141-A4DF-5165DB31DC9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{C3AFBA72-B1BC-4A11-A93A-E672CAD481DA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27980" windowHeight="17540" xr2:uid="{C3AFBA72-B1BC-4A11-A93A-E672CAD481DA}"/>
   </bookViews>
   <sheets>
     <sheet name="limit_fossil_fuels_buildings" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="84">
   <si>
     <t>adopted</t>
   </si>
@@ -205,15 +205,9 @@
     <t>NECP</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>2035: all heating to be renewable</t>
   </si>
   <si>
-    <t>Danis Climate Policy Plan</t>
-  </si>
-  <si>
     <t>2013: ban to use gas heating</t>
   </si>
   <si>
@@ -269,13 +263,28 @@
   </si>
   <si>
     <t>gas.new.reference</t>
+  </si>
+  <si>
+    <t>Oeko Institut</t>
+  </si>
+  <si>
+    <t>2023: no new oil-boilers installations</t>
+  </si>
+  <si>
+    <t>2020: ban to use gas (district heating)</t>
+  </si>
+  <si>
+    <t>2020: ban to use oil (district heating)</t>
+  </si>
+  <si>
+    <t>2022: ban to use gas heating in single-family homes, 2024: ban to use gas heating in collective housing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,8 +292,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,12 +331,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -328,13 +344,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,11 +686,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1AB4A6-8707-47B9-BBC4-4A31F53BD35D}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -671,45 +706,45 @@
     <col min="13" max="13" width="26.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="L1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -720,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
@@ -786,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
         <v>61</v>
@@ -795,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
         <v>61</v>
@@ -807,16 +842,16 @@
         <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -893,36 +928,39 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:13" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="D10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>28</v>
+      <c r="K10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1055,8 +1093,8 @@
       <c r="I17" t="s">
         <v>46</v>
       </c>
-      <c r="J17" t="s">
-        <v>59</v>
+      <c r="J17" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>0</v>
@@ -1064,8 +1102,8 @@
       <c r="L17" t="s">
         <v>47</v>
       </c>
-      <c r="M17" t="s">
-        <v>59</v>
+      <c r="M17" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1259,8 +1297,14 @@
       <c r="E26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>28</v>
+      <c r="H26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" t="s">
+        <v>58</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>28</v>
@@ -1283,25 +1327,50 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>28</v>
+      <c r="B28" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1328,7 +1397,7 @@
         <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -1340,7 +1409,7 @@
         <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">

--- a/data/traffic_light_indicators_data.xlsx
+++ b/data/traffic_light_indicators_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maarten/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Almut B\Documents\GitHub\buildings-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A825303-F0B1-0141-A4DF-5165DB31DC9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7639A052-ECA7-481E-B1DB-5476C41DAC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27980" windowHeight="17540" xr2:uid="{C3AFBA72-B1BC-4A11-A93A-E672CAD481DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C3AFBA72-B1BC-4A11-A93A-E672CAD481DA}"/>
   </bookViews>
   <sheets>
     <sheet name="limit_fossil_fuels_buildings" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="83">
   <si>
     <t>adopted</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>not submitted</t>
-  </si>
-  <si>
-    <t>submitted / not yet assessed</t>
   </si>
   <si>
     <t>submitted / assessed</t>
@@ -372,7 +369,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -388,7 +385,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -686,68 +683,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1AB4A6-8707-47B9-BBC4-4A31F53BD35D}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.6640625" customWidth="1"/>
     <col min="10" max="10" width="20.6640625" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5" customWidth="1"/>
-    <col min="13" max="13" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" customWidth="1"/>
+    <col min="13" max="13" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -755,31 +752,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
         <v>51</v>
       </c>
-      <c r="J2" t="s">
-        <v>52</v>
-      </c>
       <c r="K2" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -796,7 +793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -813,7 +810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -821,40 +818,40 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
         <v>59</v>
       </c>
-      <c r="G5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>60</v>
       </c>
-      <c r="M5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -868,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -894,7 +891,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -911,7 +908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -928,42 +925,42 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="L10" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -980,7 +977,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -994,22 +991,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1026,7 +1023,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1043,7 +1040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1060,7 +1057,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1077,7 +1074,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1091,22 +1088,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
         <v>46</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" t="s">
-        <v>47</v>
-      </c>
       <c r="M17" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1123,7 +1120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1140,7 +1137,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1148,40 +1145,40 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
         <v>48</v>
       </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
       <c r="E20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" t="s">
         <v>48</v>
       </c>
-      <c r="J20" t="s">
-        <v>49</v>
-      </c>
       <c r="K20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1189,37 +1186,37 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1236,7 +1233,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1253,7 +1250,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1270,7 +1267,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1287,7 +1284,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1301,16 +1298,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1327,7 +1324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>22</v>
       </c>
@@ -1335,37 +1332,37 @@
         <v>0</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>0</v>
       </c>
       <c r="F28" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="J28" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>0</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1378,18 +1375,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06983421-EAFC-4095-94C9-21DB1E3C0C9C}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1397,7 +1394,7 @@
         <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -1409,10 +1406,10 @@
         <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1421,7 +1418,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1430,43 +1427,43 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1475,25 +1472,25 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1502,16 +1499,16 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1520,16 +1517,16 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1538,7 +1535,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1547,52 +1544,52 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1601,7 +1598,7 @@
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1610,7 +1607,7 @@
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1619,16 +1616,16 @@
       </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1637,25 +1634,25 @@
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>

--- a/data/traffic_light_indicators_data.xlsx
+++ b/data/traffic_light_indicators_data.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Almut B\Documents\GitHub\buildings-dashboard\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Almut B\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7639A052-ECA7-481E-B1DB-5476C41DAC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BB81A5-5859-4F96-9E2F-FA7F0D7D1B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C3AFBA72-B1BC-4A11-A93A-E672CAD481DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{C3AFBA72-B1BC-4A11-A93A-E672CAD481DA}"/>
   </bookViews>
   <sheets>
     <sheet name="limit_fossil_fuels_buildings" sheetId="4" r:id="rId1"/>
     <sheet name="credibility_renovation_strategy" sheetId="3" r:id="rId2"/>
+    <sheet name="ambition_NECP_EE_FEC" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="122">
   <si>
     <t>adopted</t>
   </si>
@@ -130,9 +139,6 @@
     <t>LTRS</t>
   </si>
   <si>
-    <t>not submitted</t>
-  </si>
-  <si>
     <t>submitted / assessed</t>
   </si>
   <si>
@@ -148,140 +154,260 @@
     <t>2013: ban to use oil</t>
   </si>
   <si>
+    <t>2021: ban to use gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2025: ban to use gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023: ban to use oil </t>
+  </si>
+  <si>
+    <t>2023: ban to use gas</t>
+  </si>
+  <si>
+    <t>NL has no oil boilers</t>
+  </si>
+  <si>
+    <t>New Climate Package</t>
+  </si>
+  <si>
+    <t>2021: no new oil installations</t>
+  </si>
+  <si>
+    <t>2021 (Flanders): ban to sell oil-fired heating systems</t>
+  </si>
+  <si>
+    <t>Energy performance EPB scheme</t>
+  </si>
+  <si>
+    <t>Climate Action Programme 2030</t>
+  </si>
+  <si>
+    <t>2021: ban of oil-boilers</t>
+  </si>
+  <si>
+    <t>prepared</t>
+  </si>
+  <si>
+    <t>NECP</t>
+  </si>
+  <si>
+    <t>2035: all heating to be renewable</t>
+  </si>
+  <si>
+    <t>2013: ban to use gas heating</t>
+  </si>
+  <si>
+    <t>Danish Climate Policy Plan</t>
+  </si>
+  <si>
+    <t>2016: ban of new oil-fired boilers, 2030: ban to use oil and coal</t>
+  </si>
+  <si>
+    <t>2035 (Flanders): ban to use oil</t>
+  </si>
+  <si>
+    <t>RRF</t>
+  </si>
+  <si>
+    <t>Credibility</t>
+  </si>
+  <si>
+    <t>oil.new</t>
+  </si>
+  <si>
+    <t>gas.new</t>
+  </si>
+  <si>
+    <t>oil.existing</t>
+  </si>
+  <si>
+    <t>gas.existing</t>
+  </si>
+  <si>
+    <t>gas.new.status</t>
+  </si>
+  <si>
+    <t>gas.existing.status</t>
+  </si>
+  <si>
+    <t>oil.new.status</t>
+  </si>
+  <si>
+    <t>oil.existing.status</t>
+  </si>
+  <si>
+    <t>oil.existing.reference</t>
+  </si>
+  <si>
+    <t>gas.existing.reference</t>
+  </si>
+  <si>
+    <t>oil.new.reference</t>
+  </si>
+  <si>
+    <t>gas.new.reference</t>
+  </si>
+  <si>
+    <t>Oeko Institut</t>
+  </si>
+  <si>
+    <t>2023: no new oil-boilers installations</t>
+  </si>
+  <si>
+    <t>2020: ban to use gas (district heating)</t>
+  </si>
+  <si>
+    <t>2020: ban to use oil (district heating)</t>
+  </si>
+  <si>
+    <t>2022: ban to use gas heating in single-family homes, 2024: ban to use gas heating in collective housing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 (Flanders): ban </t>
+  </si>
+  <si>
+    <t>KfW40</t>
+  </si>
+  <si>
+    <t>2023: excludes gas</t>
+  </si>
+  <si>
+    <t>2024: 65% RES requirement, excludes stand alone gas boilder</t>
+  </si>
+  <si>
+    <t>2026: ban to install stand alone gas boilers</t>
+  </si>
+  <si>
     <t>2022: ban to use oil</t>
   </si>
   <si>
-    <t>2021: ban to use gas</t>
-  </si>
-  <si>
-    <t>2050: ban to use gas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2025: ban to use gas</t>
-  </si>
-  <si>
-    <t>2020: ban to use oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023: ban to use oil </t>
-  </si>
-  <si>
-    <t>2023: ban to use gas</t>
-  </si>
-  <si>
-    <t>NL has no oil boilers</t>
-  </si>
-  <si>
-    <t>New Climate Package</t>
-  </si>
-  <si>
-    <t>2021: no new oil installations</t>
-  </si>
-  <si>
-    <t>2021 (Flanders): ban to sell oil-fired heating systems</t>
-  </si>
-  <si>
-    <t>Energy performance EPB scheme</t>
-  </si>
-  <si>
-    <t>Climate Action Programme 2030</t>
-  </si>
-  <si>
-    <t>Draft Decrée</t>
-  </si>
-  <si>
-    <t>2021: ban of oil-boilers</t>
-  </si>
-  <si>
-    <t>prepared</t>
-  </si>
-  <si>
-    <t>ROI Building Regulation</t>
-  </si>
-  <si>
-    <t>NECP</t>
-  </si>
-  <si>
-    <t>2035: all heating to be renewable</t>
-  </si>
-  <si>
-    <t>2013: ban to use gas heating</t>
-  </si>
-  <si>
-    <t>Danish Climate Policy Plan</t>
-  </si>
-  <si>
-    <t>2016: ban of new oil-fired boilers, 2030: ban to use oil and coal</t>
-  </si>
-  <si>
-    <t>2035 (Flanders): ban to use oil</t>
-  </si>
-  <si>
-    <t>Draft decrée</t>
-  </si>
-  <si>
-    <t>RRF</t>
-  </si>
-  <si>
-    <t>Credibility</t>
-  </si>
-  <si>
-    <t>oil.new</t>
-  </si>
-  <si>
-    <t>gas.new</t>
-  </si>
-  <si>
-    <t>oil.existing</t>
-  </si>
-  <si>
-    <t>gas.existing</t>
-  </si>
-  <si>
-    <t>gas.new.status</t>
-  </si>
-  <si>
-    <t>gas.existing.status</t>
-  </si>
-  <si>
-    <t>oil.new.status</t>
-  </si>
-  <si>
-    <t>oil.existing.status</t>
-  </si>
-  <si>
-    <t>oil.existing.reference</t>
-  </si>
-  <si>
-    <t>gas.existing.reference</t>
-  </si>
-  <si>
-    <t>oil.new.reference</t>
-  </si>
-  <si>
-    <t>gas.new.reference</t>
-  </si>
-  <si>
-    <t>Oeko Institut</t>
-  </si>
-  <si>
-    <t>2023: no new oil-boilers installations</t>
-  </si>
-  <si>
-    <t>2020: ban to use gas (district heating)</t>
-  </si>
-  <si>
-    <t>2020: ban to use oil (district heating)</t>
-  </si>
-  <si>
-    <t>2022: ban to use gas heating in single-family homes, 2024: ban to use gas heating in collective housing</t>
+    <t>2019 Climate Action Plan</t>
+  </si>
+  <si>
+    <t>2022: threshold of 300gCo2eq/kWh for new equipment (=ban of oil-fired boilers)</t>
+  </si>
+  <si>
+    <t>submitted / not yet assessed</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_belgium_en.pdf</t>
+  </si>
+  <si>
+    <t>very low</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_bulgaria_en.pdf</t>
+  </si>
+  <si>
+    <t>modest</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_czechia_en.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_denmark_en.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_germany_en.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_estonia_en.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_greece_en.pdf</t>
+  </si>
+  <si>
+    <t>sufficient</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_spain_en.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_france_en.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_croatia_en.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_ireland_en.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_italy_en.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_cyprus_en.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_latvia_en.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_lithuania_en.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_luxembourg_en.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_hungary_en.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_malta_en.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_netherlands_en.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_austria_en.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_poland_en.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_portugal_en.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_romania_en.pdf</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_slovenia_en.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_slovakia_en.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_finland_en.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_sweden_en.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE FEC NECP </t>
+  </si>
+  <si>
+    <t>EED recast</t>
+  </si>
+  <si>
+    <t>no position</t>
+  </si>
+  <si>
+    <t>more ambition</t>
+  </si>
+  <si>
+    <t>less ambition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,8 +428,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +468,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -338,10 +496,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -356,9 +515,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -367,8 +523,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -684,67 +847,67 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" customWidth="1"/>
-    <col min="13" max="13" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -752,31 +915,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -793,7 +956,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -810,7 +973,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -818,63 +981,72 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
+      <c r="E6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -891,7 +1063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -908,7 +1080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -925,42 +1097,34 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>55</v>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>55</v>
+      <c r="H10" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -977,7 +1141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -991,22 +1155,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1023,7 +1187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1040,7 +1204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1057,7 +1221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1074,7 +1238,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1088,22 +1252,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>78</v>
+        <v>41</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>46</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1120,7 +1284,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1137,7 +1301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1145,78 +1309,66 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>0</v>
+      <c r="B21" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="G21" t="s">
-        <v>57</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="L21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1233,7 +1385,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1250,7 +1402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1267,7 +1419,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1284,7 +1436,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1298,16 +1450,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J26" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1324,45 +1476,45 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="12" t="s">
+      <c r="C28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="12" t="s">
+      <c r="F28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K28" s="12" t="s">
+      <c r="I28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="L28" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>57</v>
+      <c r="L28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1375,18 +1527,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06983421-EAFC-4095-94C9-21DB1E3C0C9C}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1394,7 +1546,7 @@
         <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -1406,253 +1558,253 @@
         <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
@@ -1660,4 +1812,437 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17529A85-84FE-483B-9524-1B9A7C8D55EB}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="E33" s="17"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C15" r:id="rId1" xr:uid="{E16550CB-DD60-4BEE-8DED-287070928D44}"/>
+    <hyperlink ref="C26" r:id="rId2" xr:uid="{422B11BD-01C7-4D83-916D-7E418D680637}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{3E9BC10D-0ABF-4B67-BCE8-B557ECBC2420}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{27D45513-FA2E-40FD-B285-2B7D3B067895}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{9A7950CE-DE49-41B4-AD69-523109465056}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{9EA520A1-8CE8-4563-8686-907644D93638}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{6168BECF-DB68-4E88-9C23-67FD1BAA9CC4}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{6711C688-3163-4EDB-B903-BCD1C98718A5}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{545E3CE4-DA41-4386-BC37-25A01E430029}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{E11C80E1-E42C-45B9-A2E3-A95111A66166}"/>
+    <hyperlink ref="C9" r:id="rId11" xr:uid="{FE80B9CB-75AD-4C14-8F55-4AE9FBD53FC0}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{655BA8AD-7E75-4D0D-8EB4-F19D4ACDA29D}"/>
+    <hyperlink ref="C13" r:id="rId13" xr:uid="{22B86D18-465C-456D-9589-728412A21583}"/>
+    <hyperlink ref="C25" r:id="rId14" xr:uid="{ED05951D-2659-485A-9A4C-5058121023DD}"/>
+    <hyperlink ref="C14" r:id="rId15" xr:uid="{86D22B0C-90B0-43F1-8293-23EF9DB9C19B}"/>
+    <hyperlink ref="C16" r:id="rId16" xr:uid="{AA229A3B-C159-47E8-BDC4-31E865A7793C}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{F2165178-5902-41F4-A522-F5D998371F1D}"/>
+    <hyperlink ref="C20" r:id="rId18" xr:uid="{557F4A1C-9106-4766-87EA-5470E55C17FF}"/>
+    <hyperlink ref="C21" r:id="rId19" xr:uid="{EAF3546F-8CD9-4E7B-AB4E-B7CB794F6F77}"/>
+    <hyperlink ref="C23" r:id="rId20" xr:uid="{C84D6E97-2898-481A-8BF3-41BE6B256F9F}"/>
+    <hyperlink ref="C24" r:id="rId21" xr:uid="{71AB6FA5-F13A-41B6-B65E-EAE77FC84DA4}"/>
+    <hyperlink ref="C22" r:id="rId22" xr:uid="{F2592811-87C4-45FA-8902-48B052293FB0}"/>
+    <hyperlink ref="C3" r:id="rId23" xr:uid="{12223222-A055-45DC-9179-17FD7C133984}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+</worksheet>
 </file>
--- a/data/traffic_light_indicators_data.xlsx
+++ b/data/traffic_light_indicators_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Almut B\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maartenlambrechts/Documents/clients/stefanscheuer/buildings-dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BB81A5-5859-4F96-9E2F-FA7F0D7D1B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2737C05-475E-7D46-AE54-55DBB59AFE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{C3AFBA72-B1BC-4A11-A93A-E672CAD481DA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25440" windowHeight="15400" activeTab="2" xr2:uid="{C3AFBA72-B1BC-4A11-A93A-E672CAD481DA}"/>
   </bookViews>
   <sheets>
     <sheet name="limit_fossil_fuels_buildings" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="123">
   <si>
     <t>adopted</t>
   </si>
@@ -388,12 +388,6 @@
     <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_sweden_en.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">EE FEC NECP </t>
-  </si>
-  <si>
-    <t>EED recast</t>
-  </si>
-  <si>
     <t>no position</t>
   </si>
   <si>
@@ -401,6 +395,15 @@
   </si>
   <si>
     <t>less ambition</t>
+  </si>
+  <si>
+    <t>ee.fec.necp</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>eed.recast</t>
   </si>
 </sst>
 </file>
@@ -531,8 +534,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -548,7 +551,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -850,23 +853,23 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
+    <col min="13" max="13" width="26.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -907,7 +910,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -939,7 +942,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -956,7 +959,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -973,7 +976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1124,7 +1127,7 @@
       </c>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1141,7 +1144,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1204,7 +1207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1267,7 +1270,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1333,7 +1336,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1385,7 +1388,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1402,7 +1405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1419,7 +1422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1436,7 +1439,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1459,7 +1462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1476,7 +1479,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>22</v>
       </c>
@@ -1531,14 +1534,14 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1561,7 +1564,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1570,7 +1573,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1579,7 +1582,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1588,7 +1591,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1597,7 +1600,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1606,7 +1609,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1615,7 +1618,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1624,7 +1627,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1633,7 +1636,7 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1642,7 +1645,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1651,7 +1654,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1660,7 +1663,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1669,7 +1672,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1678,7 +1681,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1687,7 +1690,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1696,7 +1699,7 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1705,7 +1708,7 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1714,7 +1717,7 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1723,7 +1726,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1732,7 +1735,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1741,7 +1744,7 @@
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1750,7 +1753,7 @@
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1759,7 +1762,7 @@
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1768,7 +1771,7 @@
       </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1777,7 +1780,7 @@
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1786,7 +1789,7 @@
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1795,7 +1798,7 @@
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1804,7 +1807,7 @@
       </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
@@ -1819,23 +1822,26 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1846,10 +1852,10 @@
         <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1860,10 +1866,10 @@
         <v>88</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1874,10 +1880,10 @@
         <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1888,10 +1894,10 @@
         <v>91</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1902,10 +1908,10 @@
         <v>92</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1916,10 +1922,10 @@
         <v>93</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1930,10 +1936,10 @@
         <v>94</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1944,10 +1950,10 @@
         <v>96</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1958,10 +1964,10 @@
         <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1972,10 +1978,10 @@
         <v>98</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1986,10 +1992,10 @@
         <v>99</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2000,10 +2006,10 @@
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2014,10 +2020,10 @@
         <v>101</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2028,10 +2034,10 @@
         <v>102</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2042,10 +2048,10 @@
         <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2056,10 +2062,10 @@
         <v>104</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2070,10 +2076,10 @@
         <v>105</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2084,10 +2090,10 @@
         <v>106</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2098,10 +2104,10 @@
         <v>107</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2112,10 +2118,10 @@
         <v>108</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2126,10 +2132,10 @@
         <v>109</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2140,10 +2146,10 @@
         <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2154,10 +2160,10 @@
         <v>111</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>112</v>
       </c>
@@ -2168,10 +2174,10 @@
         <v>113</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2182,10 +2188,10 @@
         <v>114</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2196,10 +2202,10 @@
         <v>115</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -2210,10 +2216,10 @@
         <v>116</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" ht="18" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" ht="18" x14ac:dyDescent="0.2">
       <c r="E33" s="17"/>
     </row>
   </sheetData>

--- a/data/traffic_light_indicators_data.xlsx
+++ b/data/traffic_light_indicators_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maartenlambrechts/Documents/clients/stefanscheuer/buildings-dashboard/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Almut B\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2737C05-475E-7D46-AE54-55DBB59AFE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD514154-FC69-4790-898D-B8093D2604C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25440" windowHeight="15400" activeTab="2" xr2:uid="{C3AFBA72-B1BC-4A11-A93A-E672CAD481DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C3AFBA72-B1BC-4A11-A93A-E672CAD481DA}"/>
   </bookViews>
   <sheets>
     <sheet name="limit_fossil_fuels_buildings" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="121">
   <si>
     <t>adopted</t>
   </si>
@@ -388,22 +388,16 @@
     <t>https://ec.europa.eu/energy/sites/default/files/documents/staff_working_document_assessment_necp_sweden_en.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">EE FEC NECP </t>
+  </si>
+  <si>
+    <t>EED recast</t>
+  </si>
+  <si>
     <t>no position</t>
   </si>
   <si>
-    <t>more ambition</t>
-  </si>
-  <si>
     <t>less ambition</t>
-  </si>
-  <si>
-    <t>ee.fec.necp</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>eed.recast</t>
   </si>
 </sst>
 </file>
@@ -534,8 +528,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -551,7 +545,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -853,23 +847,23 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.6640625" customWidth="1"/>
     <col min="10" max="10" width="20.6640625" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5" customWidth="1"/>
-    <col min="13" max="13" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" customWidth="1"/>
+    <col min="13" max="13" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -910,7 +904,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -942,7 +936,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -959,7 +953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -976,7 +970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1017,7 +1011,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1049,7 +1043,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1066,7 +1060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1083,7 +1077,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1100,7 +1094,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1127,7 +1121,7 @@
       </c>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1144,7 +1138,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1173,7 +1167,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1190,7 +1184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1207,7 +1201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1224,7 +1218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1241,7 +1235,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1270,7 +1264,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1287,7 +1281,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1304,7 +1298,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1336,7 +1330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1371,7 +1365,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1388,7 +1382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1405,7 +1399,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1422,7 +1416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1439,7 +1433,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1462,7 +1456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1479,7 +1473,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>22</v>
       </c>
@@ -1534,14 +1528,14 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1564,7 +1558,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1573,7 +1567,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1582,7 +1576,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1591,7 +1585,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1600,7 +1594,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1609,7 +1603,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1618,7 +1612,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1627,7 +1621,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1636,7 +1630,7 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1645,7 +1639,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1654,7 +1648,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1663,7 +1657,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1672,7 +1666,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1681,7 +1675,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1690,7 +1684,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1699,7 +1693,7 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1708,7 +1702,7 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1717,7 +1711,7 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1726,7 +1720,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1735,7 +1729,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1744,7 +1738,7 @@
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1753,7 +1747,7 @@
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1762,7 +1756,7 @@
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1771,7 +1765,7 @@
       </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1780,7 +1774,7 @@
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1789,7 +1783,7 @@
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1798,7 +1792,7 @@
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1807,7 +1801,7 @@
       </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
@@ -1822,26 +1816,23 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="D26" sqref="D26:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1852,10 +1843,10 @@
         <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1866,10 +1857,10 @@
         <v>88</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1880,10 +1871,10 @@
         <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1893,11 +1884,11 @@
       <c r="C5" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1907,11 +1898,11 @@
       <c r="C6" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1922,10 +1913,10 @@
         <v>93</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1936,10 +1927,10 @@
         <v>94</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1949,11 +1940,11 @@
       <c r="C9" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1964,10 +1955,10 @@
         <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1978,10 +1969,10 @@
         <v>98</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1991,11 +1982,11 @@
       <c r="C12" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2006,10 +1997,10 @@
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2020,10 +2011,10 @@
         <v>101</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2034,10 +2025,10 @@
         <v>102</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2048,10 +2039,10 @@
         <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2061,11 +2052,11 @@
       <c r="C17" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2076,10 +2067,10 @@
         <v>105</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2090,10 +2081,10 @@
         <v>106</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2103,11 +2094,11 @@
       <c r="C20" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2117,11 +2108,11 @@
       <c r="C21" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2132,10 +2123,10 @@
         <v>109</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2146,10 +2137,10 @@
         <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2160,10 +2151,10 @@
         <v>111</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>112</v>
       </c>
@@ -2173,11 +2164,11 @@
       <c r="C25" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2188,10 +2179,10 @@
         <v>114</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2201,11 +2192,11 @@
       <c r="C27" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -2215,11 +2206,11 @@
       <c r="C28" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E33" s="17"/>
     </row>
   </sheetData>
